--- a/data.xlsx
+++ b/data.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -700,6 +700,43 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Saturday(09/14/24)</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>11:59:45</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Rizky Yanuar Kristianto</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22031554017</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>rizky.22017@mhs.unesa.ac.id</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Kosong</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Jalan Gubernur Suryo, Sidokumpul, Sidoarjo, Jawa Timur, Jawa, 61200, Indonesia</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
